--- a/data/data_about.xlsx
+++ b/data/data_about.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariegramm/Dropbox/LAL_PROJECTS/CNV_portal/GitHub/CNV-viewer/ClinCNV-viewer/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariegramm/Dropbox/LAL_PROJECTS/CNV_portal/CNV-clinviewer/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76CFD75-2355-EA49-BD2D-AD1CCAC83BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E71EA49-D96D-FE41-81F4-689C82806B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1240" windowWidth="27240" windowHeight="15680" activeTab="1" xr2:uid="{B6BE3D26-AFDD-4F4A-B12E-D00F103CD448}"/>
+    <workbookView xWindow="1200" yWindow="1240" windowWidth="27240" windowHeight="15680" xr2:uid="{B6BE3D26-AFDD-4F4A-B12E-D00F103CD448}"/>
   </bookViews>
   <sheets>
     <sheet name="data_sources" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Copy_number_gain" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -486,9 +485,6 @@
     <t>January 26 2022</t>
   </si>
   <si>
-    <t>Dosage-sensitive genomic regions</t>
-  </si>
-  <si>
     <t>Triplosensitivity</t>
   </si>
   <si>
@@ -496,6 +492,9 @@
   </si>
   <si>
     <t>Probability of haploinsufficiency. Haploinsufficiency scores for autosomal protein-coding genes ranging from 0 to 1. Genes with low pHI scores are considered less likely to be haplosensitive and genes with high pHI scores are considered more likely haplosensitive.</t>
+  </si>
+  <si>
+    <t>Dosage sensitive genomic regions</t>
   </si>
 </sst>
 </file>
@@ -1090,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336D3FD9-1A63-7A4B-A39E-2AB64AB2F287}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1386,7 +1385,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="46" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B15" s="36" t="s">
         <v>9</v>
@@ -1508,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ECC1F00-3C16-A44F-B92C-491032399461}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1582,7 +1581,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>89</v>
@@ -1594,13 +1593,13 @@
     </row>
     <row r="5" spans="1:6" ht="61" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>85</v>
@@ -1647,7 +1646,7 @@
     </row>
     <row r="8" spans="1:6" ht="61" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>82</v>
@@ -1969,7 +1968,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
